--- a/freelance exchange.xlsx
+++ b/freelance exchange.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Folders Desktop\Study\Прис\freelanceExchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9153639-D37F-42CB-A4B1-6E3249DFAA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D89BD-73ED-4629-9F91-6A30088264CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Бизнес-функции" sheetId="2" r:id="rId1"/>
+    <sheet name="Функции менеджмента" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Персонал</t>
   </si>
@@ -73,19 +74,93 @@
   </si>
   <si>
     <t>Совершение сделки</t>
+  </si>
+  <si>
+    <t>Аналитика</t>
+  </si>
+  <si>
+    <t>ЭТАПЫ ПРОИВЗОДСТВЕННОГО ЦИКЛА</t>
+  </si>
+  <si>
+    <t>БИЗНЕСЫ</t>
+  </si>
+  <si>
+    <t>Предоставление исполнителей работодателю</t>
+  </si>
+  <si>
+    <t>Активировать телеграм-бота</t>
+  </si>
+  <si>
+    <t>Выполнить задание</t>
+  </si>
+  <si>
+    <t>Оставить отклик на задание</t>
+  </si>
+  <si>
+    <t>Получить оплату</t>
+  </si>
+  <si>
+    <t>Создать задание</t>
+  </si>
+  <si>
+    <t>Оплатить задание</t>
+  </si>
+  <si>
+    <t>Выбрать исполнителя</t>
+  </si>
+  <si>
+    <t>Разрешить списание оплаты</t>
+  </si>
+  <si>
+    <t>Просмотреть задания по темам</t>
+  </si>
+  <si>
+    <t>Просмотреть суммы прибылей по темам</t>
+  </si>
+  <si>
+    <t>Просмотреть негативные комментарии</t>
+  </si>
+  <si>
+    <t>Просмотреть количество отказов у работодателя</t>
+  </si>
+  <si>
+    <t>Предоставление заданий фрилансеру</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,17 +179,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -137,16 +364,76 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>183515</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>323216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3" descr="Шаблон формирования основных бизнес-функций">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDD80B0-50D1-7978-7047-B2221B86ECB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8321040" y="495300"/>
+          <a:ext cx="5052695" cy="2708275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>229235</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -176,7 +463,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8054340" y="2217420"/>
+          <a:off x="8892540" y="480060"/>
           <a:ext cx="5052695" cy="2872105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -190,6 +477,179 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1356360" cy="623248"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE638CFB-DDF8-3DF0-1EDA-145E53EC0A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411480" y="678180"/>
+          <a:ext cx="1356360" cy="623248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Этапы управленческого цикла</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1143000" cy="446276"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B6EC64-6D61-73DD-E952-DBBE7FBF7523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="297180"/>
+          <a:ext cx="1143000" cy="446276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Компоненты </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>менеджмента</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -455,139 +915,460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC98D54-5AD1-49B3-9DE2-15F32893776C}">
+  <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="8.21875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="9" customWidth="1"/>
+    <col min="4" max="6" width="18.5546875" style="9" customWidth="1"/>
+    <col min="7" max="13" width="9.88671875" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="2:13" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="14"/>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="14"/>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="14"/>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14"/>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="14"/>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="15"/>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="12" width="8.5546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="82.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/freelance exchange.xlsx
+++ b/freelance exchange.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Folders Desktop\Study\Прис\freelanceExchange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\дела урфушные\пис\пр1\freelanceExchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D89BD-73ED-4629-9F91-6A30088264CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6DBE03-9A26-477A-98B3-F20D19A15B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Бизнес-функции" sheetId="2" r:id="rId1"/>
-    <sheet name="Функции менеджмента" sheetId="1" r:id="rId2"/>
+    <sheet name="Функции управления" sheetId="3" r:id="rId2"/>
+    <sheet name="Функции менеджмента" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>Персонал</t>
   </si>
@@ -125,13 +126,115 @@
   </si>
   <si>
     <t>Предоставление заданий фрилансеру</t>
+  </si>
+  <si>
+    <t>Функции управления</t>
+  </si>
+  <si>
+    <t>Бухгалтерия</t>
+  </si>
+  <si>
+    <t>Отдел кадров</t>
+  </si>
+  <si>
+    <t>Отдел по администрированию и поддержке программного обеспечения</t>
+  </si>
+  <si>
+    <t>Работа с клиентами</t>
+  </si>
+  <si>
+    <t>Администрирование</t>
+  </si>
+  <si>
+    <t>Орг звенья</t>
+  </si>
+  <si>
+    <t>Взаимодействие с налоговой: сдача финансовой отчётности, расчёт и перечисление страховых взносов за сотрудников</t>
+  </si>
+  <si>
+    <t>Общение с банками, взаимодействие с эскроу-счётами, разрешение споров между работодателем и фрилансером с юридической точки зрения</t>
+  </si>
+  <si>
+    <t>Работа с сотрудниками: расчёт заработной платы, начисление больничных отпусков</t>
+  </si>
+  <si>
+    <t>Оформление сотрудника при устройстве на работу</t>
+  </si>
+  <si>
+    <t>Смена должности сотрудника, увольнение, повышение</t>
+  </si>
+  <si>
+    <t>Поиск новых сотрудников и проведение ознакомительного собеседования.</t>
+  </si>
+  <si>
+    <t>Обеспечение стабильной работы приложения, исправление ошибок программного обеспечения</t>
+  </si>
+  <si>
+    <t>Администрирование базы данных</t>
+  </si>
+  <si>
+    <t>Системное администрирование</t>
+  </si>
+  <si>
+    <t>Взаимодействие с партнёрами</t>
+  </si>
+  <si>
+    <t>Предоставление технической поддержки</t>
+  </si>
+  <si>
+    <t>Обработка размещаемой на платформе информации</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер</t>
+  </si>
+  <si>
+    <t>бухгалтер №1</t>
+  </si>
+  <si>
+    <t>бухгалтер №2</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>Заместитель директора</t>
+  </si>
+  <si>
+    <t>Главный секретарь отдела кадров</t>
+  </si>
+  <si>
+    <t>секретарь отдела кадров №1</t>
+  </si>
+  <si>
+    <t>секретарь отдела кадров №2</t>
+  </si>
+  <si>
+    <t>HR-менеджер</t>
+  </si>
+  <si>
+    <t>Разработчик</t>
+  </si>
+  <si>
+    <t>Системный администратор базы данных</t>
+  </si>
+  <si>
+    <t>Системный администратор приложения</t>
+  </si>
+  <si>
+    <t>Менеджер по работе с партнёрами</t>
+  </si>
+  <si>
+    <t>Специалист технической поддержки</t>
+  </si>
+  <si>
+    <t>Специалист по обработке размещаемой информации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +265,104 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -285,16 +476,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,7 +594,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,32 +607,139 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,33 +1316,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC98D54-5AD1-49B3-9DE2-15F32893776C}">
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="8.21875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" style="9" customWidth="1"/>
-    <col min="4" max="6" width="18.5546875" style="9" customWidth="1"/>
-    <col min="7" max="13" width="9.88671875" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.90625" style="9"/>
+    <col min="2" max="2" width="8.1796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.08984375" style="9" customWidth="1"/>
+    <col min="4" max="6" width="18.54296875" style="9" customWidth="1"/>
+    <col min="7" max="13" width="9.90625" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="16" t="s">
+    <row r="1" spans="2:13" ht="12.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:13" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="2:13" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="2:13" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
@@ -962,8 +1360,8 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -984,8 +1382,8 @@
       <c r="L4" s="10"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
+    <row r="5" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="16"/>
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1006,8 +1404,8 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14"/>
+    <row r="6" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="16"/>
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1024,8 +1422,8 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
+    <row r="7" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1042,8 +1440,8 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
+    <row r="8" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1060,8 +1458,8 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14"/>
+    <row r="9" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1078,8 +1476,8 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14"/>
+    <row r="10" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="16"/>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1096,8 +1494,8 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14"/>
+    <row r="11" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1114,8 +1512,8 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14"/>
+    <row r="12" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1132,8 +1530,8 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
+    <row r="13" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1154,8 +1552,8 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14"/>
+    <row r="14" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1176,8 +1574,8 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="2:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
+    <row r="15" spans="2:13" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17"/>
       <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1210,6 +1608,398 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D2B007-792F-408E-AE99-7020FB374151}">
+  <dimension ref="C5:W31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="11" width="16.36328125" customWidth="1"/>
+    <col min="12" max="23" width="17.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="L5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="L9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="32"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="34"/>
+    </row>
+    <row r="11" spans="3:23" ht="143.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="L11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="I12" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+    </row>
+    <row r="13" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="I13" s="45"/>
+      <c r="K13" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+    </row>
+    <row r="14" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+    </row>
+    <row r="15" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="I15" s="45"/>
+      <c r="K15" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+    </row>
+    <row r="16" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="K16" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+    </row>
+    <row r="17" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="K17" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+    </row>
+    <row r="18" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="K18" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="51"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+    </row>
+    <row r="19" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="K19" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+    </row>
+    <row r="20" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="K20" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+    </row>
+    <row r="21" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="K21" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="52"/>
+    </row>
+    <row r="22" spans="3:23" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="K22" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="V27" s="60"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="V28" s="61"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="V29" s="60"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="V30" s="61"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="V31" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="L5:W5"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="C11:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -1217,16 +2007,16 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
-    <col min="3" max="12" width="8.5546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" style="1" customWidth="1"/>
+    <col min="3" max="12" width="8.54296875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="82.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="82.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1259,7 +2049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1305,7 +2095,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +2120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +2143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
